--- a/timeTable.xlsx
+++ b/timeTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>date</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>working on nio buffer and channel</t>
+  </si>
+  <si>
+    <t>working on nio AsyncChannel</t>
   </si>
 </sst>
 </file>
@@ -683,7 +686,9 @@
       <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">

--- a/timeTable.xlsx
+++ b/timeTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>date</t>
   </si>
@@ -151,6 +151,15 @@
   </si>
   <si>
     <t>working on nio AsyncChannel</t>
+  </si>
+  <si>
+    <t>log4j and debugging</t>
+  </si>
+  <si>
+    <t>11-18</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -477,7 +486,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -698,12 +707,14 @@
         <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">

--- a/timeTable.xlsx
+++ b/timeTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>date</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>debugging 1st prj</t>
   </si>
 </sst>
 </file>
@@ -485,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -729,7 +732,9 @@
       <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">

--- a/timeTable.xlsx
+++ b/timeTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>date</t>
   </si>
@@ -749,7 +749,9 @@
       <c r="D16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timeTable.xlsx
+++ b/timeTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="68">
   <si>
     <t>date</t>
   </si>
@@ -163,6 +163,66 @@
   </si>
   <si>
     <t>debugging 1st prj</t>
+  </si>
+  <si>
+    <t>99.04.14</t>
+  </si>
+  <si>
+    <t>10-14</t>
+  </si>
+  <si>
+    <t>99.04.15</t>
+  </si>
+  <si>
+    <t>99.04.16</t>
+  </si>
+  <si>
+    <t>99.04.17</t>
+  </si>
+  <si>
+    <t>99.04.18</t>
+  </si>
+  <si>
+    <t>99.04.19</t>
+  </si>
+  <si>
+    <t>99.04.20</t>
+  </si>
+  <si>
+    <t>debug and test 1st prj</t>
+  </si>
+  <si>
+    <t>reading about threads</t>
+  </si>
+  <si>
+    <t>implementing multithreading</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>99.04.21</t>
+  </si>
+  <si>
+    <t>99.04.22</t>
+  </si>
+  <si>
+    <t>99.04.23</t>
+  </si>
+  <si>
+    <t>99.04.24</t>
+  </si>
+  <si>
+    <t>99.04.25</t>
+  </si>
+  <si>
+    <t>99.04.26</t>
+  </si>
+  <si>
+    <t>99.04.27</t>
   </si>
 </sst>
 </file>
@@ -198,8 +258,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -486,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -753,6 +819,230 @@
         <v>47</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/timeTable.xlsx
+++ b/timeTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="76">
   <si>
     <t>date</t>
   </si>
@@ -223,6 +223,30 @@
   </si>
   <si>
     <t>99.04.27</t>
+  </si>
+  <si>
+    <t>12-18</t>
+  </si>
+  <si>
+    <t>14-18</t>
+  </si>
+  <si>
+    <t>debug multiThreading</t>
+  </si>
+  <si>
+    <t>reading for 2nd prj</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>designing models</t>
+  </si>
+  <si>
+    <t>impl executerService</t>
+  </si>
+  <si>
+    <t>connecting to dataBase</t>
   </si>
 </sst>
 </file>
@@ -258,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -270,6 +294,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -554,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -948,10 +978,12 @@
       <c r="C26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="3"/>
+      <c r="D26" s="5">
+        <v>7</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
@@ -963,10 +995,12 @@
       <c r="C27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="3"/>
+      <c r="D27" s="5">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
@@ -976,12 +1010,14 @@
         <v>63</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="D28" s="5">
+        <v>6</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
@@ -993,10 +1029,12 @@
       <c r="C29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="3"/>
+      <c r="D29" s="5">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
@@ -1006,12 +1044,14 @@
         <v>65</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="D30" s="5">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
@@ -1021,12 +1061,14 @@
         <v>66</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="D31" s="5">
+        <v>8</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
@@ -1036,12 +1078,14 @@
         <v>67</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="D32" s="6">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timeTable.xlsx
+++ b/timeTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="90">
   <si>
     <t>date</t>
   </si>
@@ -247,6 +247,48 @@
   </si>
   <si>
     <t>connecting to dataBase</t>
+  </si>
+  <si>
+    <t>99.04.28</t>
+  </si>
+  <si>
+    <t>اصلاح جداول و دانلود و نصب منابع mySql</t>
+  </si>
+  <si>
+    <t>99.04.29</t>
+  </si>
+  <si>
+    <t>رسم ERD و اتصال MySQL</t>
+  </si>
+  <si>
+    <t>99.04.30</t>
+  </si>
+  <si>
+    <t>اصلاح جداول و مطالعه ی MySQL</t>
+  </si>
+  <si>
+    <t>99.04.31</t>
+  </si>
+  <si>
+    <t>14-20</t>
+  </si>
+  <si>
+    <t>تردی کردن عملیات پرداخت(commited)</t>
+  </si>
+  <si>
+    <t>99.05.01</t>
+  </si>
+  <si>
+    <t>دیباگ ترد پرداخت(pushed)</t>
+  </si>
+  <si>
+    <t>99.05.02</t>
+  </si>
+  <si>
+    <t>99.05.03</t>
+  </si>
+  <si>
+    <t>10-16</t>
   </si>
 </sst>
 </file>
@@ -582,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1087,6 +1129,119 @@
         <v>75</v>
       </c>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="5">
+        <v>8</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="5">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="5">
+        <v>8</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="5">
+        <v>6</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="5">
+        <v>9</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="5">
+        <v>6</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/timeTable.xlsx
+++ b/timeTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="101">
   <si>
     <t>date</t>
   </si>
@@ -289,6 +289,39 @@
   </si>
   <si>
     <t>10-16</t>
+  </si>
+  <si>
+    <t>مطالعه ی دیتابیس و hibernate</t>
+  </si>
+  <si>
+    <t>99.05.04</t>
+  </si>
+  <si>
+    <t>دیباگ ترد پرداخت</t>
+  </si>
+  <si>
+    <t>99.05.05</t>
+  </si>
+  <si>
+    <t>99.05.06</t>
+  </si>
+  <si>
+    <t>دیباگ ترد پرداخت و آپدیت خط به خط فایل سپرده</t>
+  </si>
+  <si>
+    <t>99.05.07</t>
+  </si>
+  <si>
+    <t>99.05.08</t>
+  </si>
+  <si>
+    <t>اتمام دیباگ ترد پرداخت و مطالعه ی دیتا بیس و مدل سازی</t>
+  </si>
+  <si>
+    <t>99.05.09</t>
+  </si>
+  <si>
+    <t>99.05.10</t>
   </si>
 </sst>
 </file>
@@ -624,16 +657,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="10.54296875" customWidth="1"/>
-    <col min="5" max="5" width="32.7265625" customWidth="1"/>
+    <col min="5" max="5" width="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1242,6 +1275,119 @@
       <c r="D40" s="6"/>
       <c r="E40" s="3"/>
     </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="5">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="5">
+        <v>8</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="5">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="5">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="5">
+        <v>8</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="5">
+        <v>6</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/timeTable.xlsx
+++ b/timeTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="112">
   <si>
     <t>date</t>
   </si>
@@ -322,6 +322,39 @@
   </si>
   <si>
     <t>99.05.10</t>
+  </si>
+  <si>
+    <t>99.05.11</t>
+  </si>
+  <si>
+    <t>مطالعه ی mySQL و hibernate</t>
+  </si>
+  <si>
+    <t>99.05.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طراحی جداول </t>
+  </si>
+  <si>
+    <t>99.05.13</t>
+  </si>
+  <si>
+    <t>طراحی جداول و رفع اشکالات</t>
+  </si>
+  <si>
+    <t>99.05.14</t>
+  </si>
+  <si>
+    <t>99.05.15</t>
+  </si>
+  <si>
+    <t>99.05.16</t>
+  </si>
+  <si>
+    <t>99.05.17</t>
+  </si>
+  <si>
+    <t>مطالعه ی mySQL و hibernate- رفع اشکال پروژه 1</t>
   </si>
 </sst>
 </file>
@@ -357,12 +390,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -657,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1388,6 +1433,125 @@
       <c r="D48" s="6"/>
       <c r="E48" s="3"/>
     </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="9">
+        <v>8</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="9">
+        <v>8</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="9">
+        <v>9</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="9">
+        <v>4</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="9">
+        <v>8</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="9">
+        <v>6</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="10">
+        <v>8</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
